--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>VLM6zkuzvt0,VLM6zkuzvt0,VLM6zkuzvt0,fK39cuorTzE,cElhIDdGz7M,F0uYZ4uI47w,cElhIDdGz7M,uJhEbO42qRo,cElhIDdGz7M,P2rFpOB6ZKI,cElhIDdGz7M,WlJ12LESGP0,cElhIDdGz7M,VLM6zkuzvt0,cElhIDdGz7M,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,fK39cuorTzE,cElhIDdGz7M,uJhEbO42qRo,cElhIDdGz7M,wXPMglvtwJE,cElhIDdGz7M,a4TDV_IDUMM,cElhIDdGz7M,6b2CjjmooDA,cElhIDdGz7M,F0uYZ4uI47w,cElhIDdGz7M,flv8b2UzJaY,flv8b2UzJaY,flv8b2UzJaY,uJhEbO42qRo,cElhIDdGz7M,loL9z89lf28,cElhIDdGz7M,uJhEbO42qRo,cElhIDdGz7M,s_MPfmMt7Rw,cElhIDdGz7M,ZNmu2g6lyC4,cElhIDdGz7M,flv8b2UzJaY,cElhIDdGz7M,NGL5pzrcRKI,NGL5pzrcRKI,NGL5pzrcRKI,fK39cuorTzE,cElhIDdGz7M,F0uYZ4uI47w,cElhIDdGz7M,uJhEbO42qRo,cElhIDdGz7M,s_MPfmMt7Rw,cElhIDdGz7M,WlJ12LESGP0,cElhIDdGz7M,NGL5pzrcRKI,cElhIDdGz7M,0rYa2WvEAEo,0rYa2WvEAEo,0rYa2WvEAEo,JqSppQf6wMU,cElhIDdGz7M,vnbjQq2DZpg,cElhIDdGz7M,MNCyjl4jaxY,cElhIDdGz7M,XhcjYIknnfA,cElhIDdGz7M,6QhQ4GVUhmI,cElhIDdGz7M,0rYa2WvEAEo,cElhIDdGz7M,UvDi1HCeLpc,UvDi1HCeLpc,UvDi1HCeLpc,2Ckh4LjX38g,cElhIDdGz7M,gK0_yZDGIgw,cElhIDdGz7M,MAIVQd4EF20,cElhIDdGz7M,9uOFhXkzEQQ,cElhIDdGz7M,9uOFhXkzEQQ,cElhIDdGz7M,UvDi1HCeLpc,cElhIDdGz7M,JSDirXX40cU,JSDirXX40cU,JSDirXX40cU,biKaNGgB3H8,cElhIDdGz7M,BzY7jtXJgm4,cElhIDdGz7M,zlwWA9dFD1A,cElhIDdGz7M,XhcjYIknnfA,cElhIDdGz7M,JSDirXX40cU,cElhIDdGz7M,PltmSE2Gjvg,PltmSE2Gjvg,PltmSE2Gjvg,BzY7jtXJgm4,cElhIDdGz7M,JqSppQf6wMU,cElhIDdGz7M,yA_oTmUyBY8,cElhIDdGz7M,gK0_yZDGIgw,cElhIDdGz7M,PltmSE2Gjvg,cElhIDdGz7M,4YSldeXmuXw,4YSldeXmuXw,4YSldeXmuXw,qMRttHiPiLs</t>
-  </si>
-  <si>
-    <t>30,30,30,310,5,3497,5,13876,5,3592,5,888,5,30,5,66,66,66,310,5,13876,5,327,5,159,5,106,5,66,5,292,292,292,13876,5,707,5,13876,5,202,5,4,5,292,5,242,242,242,310,5,3497,5,13876,5,202,5,888,5,242,5,51,51,51,168,5,2498,5,3613,5,1359,5,426,5,51,5,129,129,129,5180,5,449,5,382,5,20969,5,16195,5,129,5,145,145,145,3720,5,32,5,33,5,1359,5,145,5,298,298,298,32,5,168,5,47,5,449,5,298,5,460,460,460,2248</t>
-  </si>
-  <si>
-    <t>31,31,31,311,9,3499,9,13877,9,3593,9,889,9,31,9,68,68,68,311,9,13877,9,329,9,160,9,108,9,68,9,294,294,294,13877,9,709,9,13877,9,203,9,6,9,294,9,243,243,243,311,9,3499,9,13877,9,203,9,889,9,243,9,53,53,53,169,9,2499,9,3614,9,1361,9,428,9,53,9,130,130,130,5182,9,451,9,384,9,20971,9,16198,9,130,9,148,148,148,3721,9,34,9,35,9,1361,9,148,9,301,301,301,34,9,169,9,49,9,451,9,301,9,462,462,462,2250</t>
+    <t>wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,wmaUIif5ifM,Q-8I-uMUMYA,nt5R2jwtxx4,Q-8I-uMUMYA,zbmcJiZ5fno,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,loL9z89lf28,Q-8I-uMUMYA,lO7BdU_5RR8,Q-8I-uMUMYA,XU6Ly4feqCM,Q-8I-uMUMYA,Ewyhf2C7Z50,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,F0uYZ4uI47w,Q-8I-uMUMYA,WlJ12LESGP0,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,biKaNGgB3H8,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,PPEVhlDaJlg,Q-8I-uMUMYA,1ynvcN8RuFQ,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,JYKbPslmXek,JYKbPslmXek</t>
+  </si>
+  <si>
+    <t>2063,2063,2063,2063,2063,2063,2063,171,171,171,171,171,171,171,161,161,161,161,161,161,161,310,310,310,310,310,310,310,707,707,707,707,707,707,707,219,219,219,219,219,219,219,160,160,160,160,160,160,160,835,835,835,835,835,835,835,310,310,310,310,310,310,310,3497,3497,3497,3497,3497,3497,3497,111,111,111,2063,5,171,5,161,5,310,5,707,5,219,5,160,5,835,5,310,5,3497,5,888,5,111,5,3720,3720,3720,3720,3720,3720,3720,310,310,310,310,310,310,310,2745,2745,2745,2745,2745,2745,2745,310,310,310,310,310,310,310,266,266,266,266,266,266,266,314,314,314,314,314,314,314,116,116,116,3720,5,310,5,2745,5,310,5,266,5,314,5,116,5,672,672,672,672,672,672,672,515,515,515,515,515,515,515,6985,6985,6985,6985,6985,6985,6985,20891,20891,20891,20891,20891,20891,20891,99,99,99,99,99,99,99,310,310,310,310,310,310,310,148,148</t>
+  </si>
+  <si>
+    <t>2064,2064,2064,2064,2064,2064,2064,172,172,172,172,172,172,172,163,163,163,163,163,163,163,311,311,311,311,311,311,311,709,709,709,709,709,709,709,220,220,220,220,220,220,220,161,161,161,161,161,161,161,836,836,836,836,836,836,836,311,311,311,311,311,311,311,3499,3499,3499,3499,3499,3499,3499,114,114,114,2064,9,172,9,163,9,311,9,709,9,220,9,161,9,836,9,311,9,3499,9,889,9,114,9,3721,3721,3721,3721,3721,3721,3721,311,311,311,311,311,311,311,2746,2746,2746,2746,2746,2746,2746,311,311,311,311,311,311,311,268,268,268,268,268,268,268,315,315,315,315,315,315,315,118,118,118,3721,9,311,9,2746,9,311,9,268,9,315,9,118,9,674,674,674,674,674,674,674,517,517,517,517,517,517,517,6986,6986,6986,6986,6986,6986,6986,20892,20892,20892,20892,20892,20892,20892,101,101,101,101,101,101,101,311,311,311,311,311,311,311,149,149</t>
   </si>
 </sst>
 </file>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,wmaUIif5ifM,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,nt5R2jwtxx4,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,loL9z89lf28,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,lO7BdU_5RR8,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,XU6Ly4feqCM,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,F0uYZ4uI47w,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,wmaUIif5ifM,Q-8I-uMUMYA,nt5R2jwtxx4,Q-8I-uMUMYA,zbmcJiZ5fno,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,loL9z89lf28,Q-8I-uMUMYA,lO7BdU_5RR8,Q-8I-uMUMYA,XU6Ly4feqCM,Q-8I-uMUMYA,Ewyhf2C7Z50,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,F0uYZ4uI47w,Q-8I-uMUMYA,WlJ12LESGP0,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,robgEk58nx4,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,PPEVhlDaJlg,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,1ynvcN8RuFQ,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,biKaNGgB3H8,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,robgEk58nx4,Q-8I-uMUMYA,fK39cuorTzE,Q-8I-uMUMYA,PPEVhlDaJlg,Q-8I-uMUMYA,1ynvcN8RuFQ,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,qMRttHiPiLs,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,jjPzTzlWQE0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,ffFz9TaVIuY,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,fK39cuorTzE,JYKbPslmXek,JYKbPslmXek</t>
-  </si>
-  <si>
-    <t>2063,2063,2063,2063,2063,2063,2063,171,171,171,171,171,171,171,161,161,161,161,161,161,161,310,310,310,310,310,310,310,707,707,707,707,707,707,707,219,219,219,219,219,219,219,160,160,160,160,160,160,160,835,835,835,835,835,835,835,310,310,310,310,310,310,310,3497,3497,3497,3497,3497,3497,3497,111,111,111,2063,5,171,5,161,5,310,5,707,5,219,5,160,5,835,5,310,5,3497,5,888,5,111,5,3720,3720,3720,3720,3720,3720,3720,310,310,310,310,310,310,310,2745,2745,2745,2745,2745,2745,2745,310,310,310,310,310,310,310,266,266,266,266,266,266,266,314,314,314,314,314,314,314,116,116,116,3720,5,310,5,2745,5,310,5,266,5,314,5,116,5,672,672,672,672,672,672,672,515,515,515,515,515,515,515,6985,6985,6985,6985,6985,6985,6985,20891,20891,20891,20891,20891,20891,20891,99,99,99,99,99,99,99,310,310,310,310,310,310,310,148,148</t>
-  </si>
-  <si>
-    <t>2064,2064,2064,2064,2064,2064,2064,172,172,172,172,172,172,172,163,163,163,163,163,163,163,311,311,311,311,311,311,311,709,709,709,709,709,709,709,220,220,220,220,220,220,220,161,161,161,161,161,161,161,836,836,836,836,836,836,836,311,311,311,311,311,311,311,3499,3499,3499,3499,3499,3499,3499,114,114,114,2064,9,172,9,163,9,311,9,709,9,220,9,161,9,836,9,311,9,3499,9,889,9,114,9,3721,3721,3721,3721,3721,3721,3721,311,311,311,311,311,311,311,2746,2746,2746,2746,2746,2746,2746,311,311,311,311,311,311,311,268,268,268,268,268,268,268,315,315,315,315,315,315,315,118,118,118,3721,9,311,9,2746,9,311,9,268,9,315,9,118,9,674,674,674,674,674,674,674,517,517,517,517,517,517,517,6986,6986,6986,6986,6986,6986,6986,20892,20892,20892,20892,20892,20892,20892,101,101,101,101,101,101,101,311,311,311,311,311,311,311,149,149</t>
+    <t>4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,4AgRc5asKcU,Q-8I-uMUMYA,26CxFdEknUg,Q-8I-uMUMYA,B7HYu_cq_P8,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,Yrh7Bmlq7uA,Q-8I-uMUMYA,qpTps9jjTHs,Q-8I-uMUMYA,hkF_JjZGF8Q,Q-8I-uMUMYA,SrGjwVm7WGY,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,p4Xe249nsTU,Q-8I-uMUMYA,3TI4Ce_ckO0,Q-8I-uMUMYA,EiyFf3Ip18E,Q-8I-uMUMYA,ypbGtkT8Jfo,Q-8I-uMUMYA,tHFynkakpVk,Q-8I-uMUMYA,5XGbMbvvfyY,Q-8I-uMUMYA,bjKUUIiC7NM,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,rqLY8QD0a4g,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,tRNk2Za0JaA,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,TpPgDxMOuz8,Q-8I-uMUMYA,8oxf7nVWqIE,Q-8I-uMUMYA,jP8ee6ulenE,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,NxX9X3tkSXw,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,Fn5erRPierY,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM</t>
+  </si>
+  <si>
+    <t>34,34,34,34,34,34,34,2084,2084,2084,2084,2084,2084,2084,145,145,145,145,145,145,145,101,101,101,101,101,101,101,3142,3142,3142,3142,3142,3142,3142,975,975,975,975,975,975,975,340,340,340,340,340,340,340,120,120,120,120,120,120,120,101,101,101,101,101,101,101,27931,27931,27931,27931,27931,27931,27931,111,111,111,34,5,2084,5,145,5,101,5,3142,5,975,5,340,5,120,5,101,5,27931,5,1137,5,4414,5,76,5,104,5,264,5,173,5,164,5,111,5,308,308,308,308,308,308,308,101,101,101,101,101,101,101,21,21,21,21,21,21,21,101,101,101,101,101,101,101,5705,5705,5705,5705,5705,5705,5705,917,917,917,917,917,917,917,116,116,116,308,5,101,5,21,5,101,5,5705,5,917,5,68,5,368,5,4490,5,430,5,116,5,424,5,116,5,2900,2900,2900,2900,2900,2900,2900,2456,2456,2456,2456,2456,2456,2456,1274,1274,1274,1274,1274,1274</t>
+  </si>
+  <si>
+    <t>36,36,36,36,36,36,36,2086,2086,2086,2086,2086,2086,2086,146,146,146,146,146,146,146,102,102,102,102,102,102,102,3144,3144,3144,3144,3144,3144,3144,976,976,976,976,976,976,976,341,341,341,341,341,341,341,121,121,121,121,121,121,121,102,102,102,102,102,102,102,27932,27932,27932,27932,27932,27932,27932,114,114,114,36,9,2086,9,146,9,102,9,3144,9,976,9,341,9,121,9,102,9,27932,9,1139,9,4416,9,78,9,105,9,267,9,175,9,166,9,114,9,309,309,309,309,309,309,309,102,102,102,102,102,102,102,22,22,22,22,22,22,22,102,102,102,102,102,102,102,5706,5706,5706,5706,5706,5706,5706,919,919,919,919,919,919,919,118,118,118,309,9,102,9,22,9,102,9,5706,9,919,9,69,9,369,9,4492,9,432,9,118,9,426,9,118,9,2902,2902,2902,2902,2902,2902,2902,2457,2457,2457,2457,2457,2457,2457,1276,1276,1276,1276,1276,1276</t>
   </si>
 </sst>
 </file>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,4AgRc5asKcU,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,26CxFdEknUg,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,B7HYu_cq_P8,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,qpTps9jjTHs,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,hkF_JjZGF8Q,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,SrGjwVm7WGY,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,4AgRc5asKcU,Q-8I-uMUMYA,26CxFdEknUg,Q-8I-uMUMYA,B7HYu_cq_P8,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,Yrh7Bmlq7uA,Q-8I-uMUMYA,qpTps9jjTHs,Q-8I-uMUMYA,hkF_JjZGF8Q,Q-8I-uMUMYA,SrGjwVm7WGY,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,p4Xe249nsTU,Q-8I-uMUMYA,3TI4Ce_ckO0,Q-8I-uMUMYA,EiyFf3Ip18E,Q-8I-uMUMYA,ypbGtkT8Jfo,Q-8I-uMUMYA,tHFynkakpVk,Q-8I-uMUMYA,5XGbMbvvfyY,Q-8I-uMUMYA,bjKUUIiC7NM,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,rqLY8QD0a4g,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,tRNk2Za0JaA,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,TwjlHTeF6GM,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,TpPgDxMOuz8,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,rqLY8QD0a4g,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,tRNk2Za0JaA,Q-8I-uMUMYA,TwjlHTeF6GM,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,TpPgDxMOuz8,Q-8I-uMUMYA,8oxf7nVWqIE,Q-8I-uMUMYA,jP8ee6ulenE,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,NxX9X3tkSXw,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,Fn5erRPierY,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,73EiZCbh29c,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM,ZSWiZ2VujEM</t>
-  </si>
-  <si>
-    <t>34,34,34,34,34,34,34,2084,2084,2084,2084,2084,2084,2084,145,145,145,145,145,145,145,101,101,101,101,101,101,101,3142,3142,3142,3142,3142,3142,3142,975,975,975,975,975,975,975,340,340,340,340,340,340,340,120,120,120,120,120,120,120,101,101,101,101,101,101,101,27931,27931,27931,27931,27931,27931,27931,111,111,111,34,5,2084,5,145,5,101,5,3142,5,975,5,340,5,120,5,101,5,27931,5,1137,5,4414,5,76,5,104,5,264,5,173,5,164,5,111,5,308,308,308,308,308,308,308,101,101,101,101,101,101,101,21,21,21,21,21,21,21,101,101,101,101,101,101,101,5705,5705,5705,5705,5705,5705,5705,917,917,917,917,917,917,917,116,116,116,308,5,101,5,21,5,101,5,5705,5,917,5,68,5,368,5,4490,5,430,5,116,5,424,5,116,5,2900,2900,2900,2900,2900,2900,2900,2456,2456,2456,2456,2456,2456,2456,1274,1274,1274,1274,1274,1274</t>
-  </si>
-  <si>
-    <t>36,36,36,36,36,36,36,2086,2086,2086,2086,2086,2086,2086,146,146,146,146,146,146,146,102,102,102,102,102,102,102,3144,3144,3144,3144,3144,3144,3144,976,976,976,976,976,976,976,341,341,341,341,341,341,341,121,121,121,121,121,121,121,102,102,102,102,102,102,102,27932,27932,27932,27932,27932,27932,27932,114,114,114,36,9,2086,9,146,9,102,9,3144,9,976,9,341,9,121,9,102,9,27932,9,1139,9,4416,9,78,9,105,9,267,9,175,9,166,9,114,9,309,309,309,309,309,309,309,102,102,102,102,102,102,102,22,22,22,22,22,22,22,102,102,102,102,102,102,102,5706,5706,5706,5706,5706,5706,5706,919,919,919,919,919,919,919,118,118,118,309,9,102,9,22,9,102,9,5706,9,919,9,69,9,369,9,4492,9,432,9,118,9,426,9,118,9,2902,2902,2902,2902,2902,2902,2902,2457,2457,2457,2457,2457,2457,2457,1276,1276,1276,1276,1276,1276</t>
+    <t>A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,6aNez9olqMU,6aNez9olqMU,6aNez9olqMU,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,EHhSaFkudSQ,EHhSaFkudSQ,EHhSaFkudSQ,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,RFoMMSvriYg,RFoMMSvriYg,RFoMMSvriYg,RFoMMSvriYg,w1YZE6nWaWU,w1YZE6nWaWU,w1YZE6nWaWU,MAIVQd4EF20,MAIVQd4EF20,MAIVQd4EF20,MAIVQd4EF20,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,6QhQ4GVUhmI,6QhQ4GVUhmI,6QhQ4GVUhmI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,EZMgSCfbiGs,EZMgSCfbiGs,EZMgSCfbiGs,EZMgSCfbiGs,BHfZRmk3n6w,BHfZRmk3n6w,BHfZRmk3n6w,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,AaVi4igmpYQ,Q-8I-uMUMYA,6aNez9olqMU,Q-8I-uMUMYA,ADgBtBV3dIw,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,w1YZE6nWaWU,Q-8I-uMUMYA,MAIVQd4EF20,Q-8I-uMUMYA,6QhQ4GVUhmI,Q-8I-uMUMYA,yp87TXXhJnI,Q-8I-uMUMYA,BHfZRmk3n6w,Q-8I-uMUMYA,p4Xe249nsTU,Q-8I-uMUMYA,3TI4Ce_ckO0,Q-8I-uMUMYA,EiyFf3Ip18E,Q-8I-uMUMYA,ypbGtkT8Jfo,Q-8I-uMUMYA,tHFynkakpVk,Q-8I-uMUMYA,5XGbMbvvfyY,Q-8I-uMUMYA,bjKUUIiC7NM,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,kO1qdcgodY0,kO1qdcgodY0,kO1qdcgodY0,kO1qdcgodY0,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,KhdP3Q0IpRY,KhdP3Q0IpRY,KhdP3Q0IpRY,KhdP3Q0IpRY,vjaP0sAIp7g,vjaP0sAIp7g,vjaP0sAIp7g,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,Grus9PScjRM,Grus9PScjRM,Grus9PScjRM,Grus9PScjRM,1JRauSMWBww,1JRauSMWBww,1JRauSMWBww,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,kO1qdcgodY0,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,KhdP3Q0IpRY,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,1JRauSMWBww,Q-8I-uMUMYA,8oxf7nVWqIE,Q-8I-uMUMYA,jP8ee6ulenE,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,NxX9X3tkSXw,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,Fn5erRPierY,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,24EWdb4zZv4,24EWdb4zZv4,24EWdb4zZv4,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,KFkJCia8L5M,KFkJCia8L5M,KFkJCia8L5M,siB4bwrbWJ8,siB4bwrbWJ8,siB4bwrbWJ8,siB4bwrbWJ8,znl_LpOcfVw,znl_LpOcfVw,znl_LpOcfVw,aEICbq3QzvU,aEICbq3QzvU,aEICbq3QzvU,aEICbq3QzvU,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,htPOIqQYZ6E,htPOIqQYZ6E,htPOIqQYZ6E,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,A8EXbpOKPGk,A8EXbpOKPGk,A8EXbpOKPGk,A8EXbpOKPGk,ftwsaGlOEdA,ftwsaGlOEdA,ftwsaGlOEdA,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,24EWdb4zZv4,Q-8I-uMUMYA,R4Q1cNbNKU0,Q-8I-uMUMYA,znl_LpOcfVw,Q-8I-uMUMYA,aEICbq3QzvU,Q-8I-uMUMYA,gK0_yZDGIgw,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,A8EXbpOKPGk,Q-8I-uMUMYA,Ud7n8yMn_h8,Q-8I-uMUMYA,6b2CjjmooDA,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,UH5OpEpuBCA,UH5OpEpuBCA,UH5OpEpuBCA,UH5OpEpuBCA,xKNDkrAQ3iM,xKNDkrAQ3iM,xKNDkrAQ3iM,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,htPOIqQYZ6E,htPOIqQYZ6E,htPOIqQYZ6E,wqAziYhui4I,wqAziYhui4I,wqAziYhui4I,wqAziYhui4I,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,PP6Oi6xQQOo,PP6Oi6xQQOo,PP6Oi6xQQOo,PP6Oi6xQQOo,PzqrzEue4Ec,PzqrzEue4Ec,PzqrzEue4Ec,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,aky6sGXP8fE,aky6sGXP8fE,aky6sGXP8fE,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,xKNDkrAQ3iM,Q-8I-uMUMYA,gK0_yZDGIgw</t>
+  </si>
+  <si>
+    <t>2592,2592,2592,2592,818,818,818,1998,1998,1998,1998,148,148,148,240,240,240,240,141,141,141,194,194,194,194,281,281,281,5264,5264,5264,5264,23845,23845,23845,1501,1501,1501,1501,779,779,779,419,419,419,419,15775,15775,15775,932,932,932,932,1539,1539,1539,194,194,194,194,281,281,281,2450,2450,2450,2450,633,633,633,111,111,111,818,5,148,5,240,5,281,5,5264,5,779,5,419,5,1539,5,194,5,633,5,1137,5,4414,5,76,5,104,5,264,5,173,5,164,5,111,5,450,450,450,450,469,469,469,194,194,194,194,281,281,281,8,8,8,8,475,475,475,194,194,194,194,281,281,281,17842,17842,17842,17842,1857,1857,1857,26,26,26,26,474,474,474,116,116,116,450,5,281,5,8,5,281,5,1857,5,474,5,68,5,368,5,4490,5,430,5,116,5,424,5,116,5,569,569,569,569,1217,1217,1217,13848,13848,13848,13848,4124,4124,4124,1344,1344,1344,1344,344,344,344,53,53,53,53,5109,5109,5109,1770,1770,1770,1770,168,168,168,194,194,194,194,281,281,281,411,411,411,411,240,240,240,267,267,267,1217,5,13848,5,344,5,53,5,1770,5,281,5,411,5,129,5,3510,5,267,5,1116,1116,1116,1116,1291,1291,1291,1770,1770,1770,1770,168,168,168,770,770,770,770,3220,3220,3220,88,88,88,88,92,92,92,4494,4494,4494,4494,5445,5445,5445,6081,6081,6081,6081,104,104,104,557,557,557,1291,5,1770</t>
+  </si>
+  <si>
+    <t>2593,2593,2593,2593,820,820,820,1999,1999,1999,1999,149,149,149,242,242,242,242,143,143,143,195,195,195,195,282,282,282,5265,5265,5265,5265,23846,23846,23846,1502,1502,1502,1502,780,780,780,421,421,421,421,15777,15777,15777,933,933,933,933,1540,1540,1540,195,195,195,195,282,282,282,2451,2451,2451,2451,634,634,634,114,114,114,820,9,149,9,242,9,282,9,5265,9,780,9,421,9,1540,9,195,9,634,9,1139,9,4416,9,78,9,105,9,267,9,175,9,166,9,114,9,452,452,452,452,470,470,470,195,195,195,195,282,282,282,9,9,9,9,477,477,477,195,195,195,195,282,282,282,17843,17843,17843,17843,1859,1859,1859,27,27,27,27,476,476,476,118,118,118,452,9,282,9,9,9,282,9,1859,9,476,9,69,9,369,9,4492,9,432,9,118,9,426,9,118,9,571,571,571,571,1218,1218,1218,13849,13849,13849,13849,4125,4125,4125,1346,1346,1346,1346,346,346,346,55,55,55,55,5111,5111,5111,1771,1771,1771,1771,169,169,169,195,195,195,195,282,282,282,413,413,413,413,242,242,242,270,270,270,1218,9,13849,9,346,9,55,9,1771,9,282,9,413,9,132,9,3511,9,270,9,1118,1118,1118,1118,1292,1292,1292,1771,1771,1771,1771,169,169,169,772,772,772,772,3221,3221,3221,89,89,89,89,93,93,93,4496,4496,4496,4496,5446,5446,5446,6083,6083,6083,6083,105,105,105,559,559,559,1292,9,1771</t>
   </si>
 </sst>
 </file>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,6aNez9olqMU,6aNez9olqMU,6aNez9olqMU,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,ADgBtBV3dIw,EHhSaFkudSQ,EHhSaFkudSQ,EHhSaFkudSQ,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,RFoMMSvriYg,RFoMMSvriYg,RFoMMSvriYg,RFoMMSvriYg,w1YZE6nWaWU,w1YZE6nWaWU,w1YZE6nWaWU,MAIVQd4EF20,MAIVQd4EF20,MAIVQd4EF20,MAIVQd4EF20,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,6QhQ4GVUhmI,6QhQ4GVUhmI,6QhQ4GVUhmI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,EZMgSCfbiGs,EZMgSCfbiGs,EZMgSCfbiGs,EZMgSCfbiGs,BHfZRmk3n6w,BHfZRmk3n6w,BHfZRmk3n6w,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,AaVi4igmpYQ,Q-8I-uMUMYA,6aNez9olqMU,Q-8I-uMUMYA,ADgBtBV3dIw,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,JRhFqrIDklA,Q-8I-uMUMYA,w1YZE6nWaWU,Q-8I-uMUMYA,MAIVQd4EF20,Q-8I-uMUMYA,6QhQ4GVUhmI,Q-8I-uMUMYA,yp87TXXhJnI,Q-8I-uMUMYA,BHfZRmk3n6w,Q-8I-uMUMYA,p4Xe249nsTU,Q-8I-uMUMYA,3TI4Ce_ckO0,Q-8I-uMUMYA,EiyFf3Ip18E,Q-8I-uMUMYA,ypbGtkT8Jfo,Q-8I-uMUMYA,tHFynkakpVk,Q-8I-uMUMYA,5XGbMbvvfyY,Q-8I-uMUMYA,bjKUUIiC7NM,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,kO1qdcgodY0,kO1qdcgodY0,kO1qdcgodY0,kO1qdcgodY0,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,KhdP3Q0IpRY,KhdP3Q0IpRY,KhdP3Q0IpRY,KhdP3Q0IpRY,vjaP0sAIp7g,vjaP0sAIp7g,vjaP0sAIp7g,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,Grus9PScjRM,Grus9PScjRM,Grus9PScjRM,Grus9PScjRM,1JRauSMWBww,1JRauSMWBww,1JRauSMWBww,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,kO1qdcgodY0,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,KhdP3Q0IpRY,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,1JRauSMWBww,Q-8I-uMUMYA,8oxf7nVWqIE,Q-8I-uMUMYA,jP8ee6ulenE,Q-8I-uMUMYA,71PKVXuCQj8,Q-8I-uMUMYA,NxX9X3tkSXw,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,Fn5erRPierY,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,24EWdb4zZv4,24EWdb4zZv4,24EWdb4zZv4,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,KFkJCia8L5M,KFkJCia8L5M,KFkJCia8L5M,siB4bwrbWJ8,siB4bwrbWJ8,siB4bwrbWJ8,siB4bwrbWJ8,znl_LpOcfVw,znl_LpOcfVw,znl_LpOcfVw,aEICbq3QzvU,aEICbq3QzvU,aEICbq3QzvU,aEICbq3QzvU,71PKVXuCQj8,71PKVXuCQj8,71PKVXuCQj8,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,htPOIqQYZ6E,htPOIqQYZ6E,htPOIqQYZ6E,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yp87TXXhJnI,yFcDwWMXCRk,yFcDwWMXCRk,yFcDwWMXCRk,A8EXbpOKPGk,A8EXbpOKPGk,A8EXbpOKPGk,A8EXbpOKPGk,ftwsaGlOEdA,ftwsaGlOEdA,ftwsaGlOEdA,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,24EWdb4zZv4,Q-8I-uMUMYA,R4Q1cNbNKU0,Q-8I-uMUMYA,znl_LpOcfVw,Q-8I-uMUMYA,aEICbq3QzvU,Q-8I-uMUMYA,gK0_yZDGIgw,Q-8I-uMUMYA,yFcDwWMXCRk,Q-8I-uMUMYA,A8EXbpOKPGk,Q-8I-uMUMYA,Ud7n8yMn_h8,Q-8I-uMUMYA,6b2CjjmooDA,Q-8I-uMUMYA,BoaYsdPtJYA,Q-8I-uMUMYA,UH5OpEpuBCA,UH5OpEpuBCA,UH5OpEpuBCA,UH5OpEpuBCA,xKNDkrAQ3iM,xKNDkrAQ3iM,xKNDkrAQ3iM,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,htPOIqQYZ6E,htPOIqQYZ6E,htPOIqQYZ6E,wqAziYhui4I,wqAziYhui4I,wqAziYhui4I,wqAziYhui4I,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,PP6Oi6xQQOo,PP6Oi6xQQOo,PP6Oi6xQQOo,PP6Oi6xQQOo,PzqrzEue4Ec,PzqrzEue4Ec,PzqrzEue4Ec,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,aky6sGXP8fE,aky6sGXP8fE,aky6sGXP8fE,BoaYsdPtJYA,BoaYsdPtJYA,BoaYsdPtJYA,xKNDkrAQ3iM,Q-8I-uMUMYA,gK0_yZDGIgw</t>
-  </si>
-  <si>
-    <t>2592,2592,2592,2592,818,818,818,1998,1998,1998,1998,148,148,148,240,240,240,240,141,141,141,194,194,194,194,281,281,281,5264,5264,5264,5264,23845,23845,23845,1501,1501,1501,1501,779,779,779,419,419,419,419,15775,15775,15775,932,932,932,932,1539,1539,1539,194,194,194,194,281,281,281,2450,2450,2450,2450,633,633,633,111,111,111,818,5,148,5,240,5,281,5,5264,5,779,5,419,5,1539,5,194,5,633,5,1137,5,4414,5,76,5,104,5,264,5,173,5,164,5,111,5,450,450,450,450,469,469,469,194,194,194,194,281,281,281,8,8,8,8,475,475,475,194,194,194,194,281,281,281,17842,17842,17842,17842,1857,1857,1857,26,26,26,26,474,474,474,116,116,116,450,5,281,5,8,5,281,5,1857,5,474,5,68,5,368,5,4490,5,430,5,116,5,424,5,116,5,569,569,569,569,1217,1217,1217,13848,13848,13848,13848,4124,4124,4124,1344,1344,1344,1344,344,344,344,53,53,53,53,5109,5109,5109,1770,1770,1770,1770,168,168,168,194,194,194,194,281,281,281,411,411,411,411,240,240,240,267,267,267,1217,5,13848,5,344,5,53,5,1770,5,281,5,411,5,129,5,3510,5,267,5,1116,1116,1116,1116,1291,1291,1291,1770,1770,1770,1770,168,168,168,770,770,770,770,3220,3220,3220,88,88,88,88,92,92,92,4494,4494,4494,4494,5445,5445,5445,6081,6081,6081,6081,104,104,104,557,557,557,1291,5,1770</t>
-  </si>
-  <si>
-    <t>2593,2593,2593,2593,820,820,820,1999,1999,1999,1999,149,149,149,242,242,242,242,143,143,143,195,195,195,195,282,282,282,5265,5265,5265,5265,23846,23846,23846,1502,1502,1502,1502,780,780,780,421,421,421,421,15777,15777,15777,933,933,933,933,1540,1540,1540,195,195,195,195,282,282,282,2451,2451,2451,2451,634,634,634,114,114,114,820,9,149,9,242,9,282,9,5265,9,780,9,421,9,1540,9,195,9,634,9,1139,9,4416,9,78,9,105,9,267,9,175,9,166,9,114,9,452,452,452,452,470,470,470,195,195,195,195,282,282,282,9,9,9,9,477,477,477,195,195,195,195,282,282,282,17843,17843,17843,17843,1859,1859,1859,27,27,27,27,476,476,476,118,118,118,452,9,282,9,9,9,282,9,1859,9,476,9,69,9,369,9,4492,9,432,9,118,9,426,9,118,9,571,571,571,571,1218,1218,1218,13849,13849,13849,13849,4125,4125,4125,1346,1346,1346,1346,346,346,346,55,55,55,55,5111,5111,5111,1771,1771,1771,1771,169,169,169,195,195,195,195,282,282,282,413,413,413,413,242,242,242,270,270,270,1218,9,13849,9,346,9,55,9,1771,9,282,9,413,9,132,9,3511,9,270,9,1118,1118,1118,1118,1292,1292,1292,1771,1771,1771,1771,169,169,169,772,772,772,772,3221,3221,3221,89,89,89,89,93,93,93,4496,4496,4496,4496,5446,5446,5446,6083,6083,6083,6083,105,105,105,559,559,559,1292,9,1771</t>
+    <t>HNqNQNMXio4,HNqNQNMXio4,HNqNQNMXio4,HNqNQNMXio4,18QgUSnRjxo,18QgUSnRjxo,18QgUSnRjxo,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,6QhQ4GVUhmI,6QhQ4GVUhmI,6QhQ4GVUhmI,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,vwUaEiSxeko,vwUaEiSxeko,vwUaEiSxeko,vwUaEiSxeko,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,LmFZFyWx8Gc,LmFZFyWx8Gc,LmFZFyWx8Gc,LmFZFyWx8Gc,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,aky6sGXP8fE,aky6sGXP8fE,aky6sGXP8fE,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,HNqNQNMXio4,Q-8I-uMUMYA,g01V_H0TU8o,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,vwUaEiSxeko,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,aky6sGXP8fE,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,dMd0RQ5lGYE,dMd0RQ5lGYE,dMd0RQ5lGYE,txs2EeEypQk,txs2EeEypQk,txs2EeEypQk,txs2EeEypQk,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,2Ckh4LjX38g,2Ckh4LjX38g,2Ckh4LjX38g,uJhEbO42qRo,uJhEbO42qRo,uJhEbO42qRo,uJhEbO42qRo,l_1T3uIi4sc,l_1T3uIi4sc,l_1T3uIi4sc,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,RV_22SjePOY,RV_22SjePOY,RV_22SjePOY,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,AaVi4igmpYQ,Q-8I-uMUMYA,dMd0RQ5lGYE,Q-8I-uMUMYA,txs2EeEypQk,Q-8I-uMUMYA,LyPygt9GFlk,Q-8I-uMUMYA,l_1T3uIi4sc,Q-8I-uMUMYA,4X7rfCia4yI,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,dMd0RQ5lGYE,dMd0RQ5lGYE,dMd0RQ5lGYE,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,2Ckh4LjX38g,2Ckh4LjX38g,2Ckh4LjX38g,_ZAvJpr0xjk,_ZAvJpr0xjk,_ZAvJpr0xjk,_ZAvJpr0xjk,K6lyGqxN5Uw,K6lyGqxN5Uw,K6lyGqxN5Uw,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,RV_22SjePOY,RV_22SjePOY,RV_22SjePOY,7SZgZ8ubuuE,7SZgZ8ubuuE,7SZgZ8ubuuE,7SZgZ8ubuuE,4n6Edzd6LoA,4n6Edzd6LoA,4n6Edzd6LoA,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,AaVi4igmpYQ,Q-8I-uMUMYA,dMd0RQ5lGYE,Q-8I-uMUMYA,2Ckh4LjX38g,Q-8I-uMUMYA,_ZAvJpr0xjk,Q-8I-uMUMYA,4X7rfCia4yI,Q-8I-uMUMYA,7SZgZ8ubuuE,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,4aCdvnELXGQ,4aCdvnELXGQ,4aCdvnELXGQ,4aCdvnELXGQ,COlIItbPopY,COlIItbPopY,COlIItbPopY,OPIgxnSYfgQ,OPIgxnSYfgQ,OPIgxnSYfgQ,OPIgxnSYfgQ,MsqekqLZq5M,MsqekqLZq5M,MsqekqLZq5M,O1MO3NjngNk,O1MO3NjngNk,O1MO3NjngNk,O1MO3NjngNk,0dI_EMaZG94,0dI_EMaZG94,0dI_EMaZG94,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,jUUQNc8_5T0,jUUQNc8_5T0,jUUQNc8_5T0,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,s1Iy1dpIyIA,s1Iy1dpIyIA,s1Iy1dpIyIA,s1Iy1dpIyIA,Co4vE_sSnZM,Co4vE_sSnZM,Co4vE_sSnZM,UltPsmBVTV0,UltPsmBVTV0,UltPsmBVTV0,COlIItbPopY,Q-8I-uMUMYA,MsqekqLZq5M,Q-8I-uMUMYA,0dI_EMaZG94,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,jUUQNc8_5T0,Q-8I-uMUMYA,ZWsp0zoZJCM,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,Co4vE_sSnZM,Q-8I-uMUMYA,UltPsmBVTV0,Q-8I-uMUMYA,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,6aNez9olqMU,6aNez9olqMU,6aNez9olqMU,NITqK_fKv5o,NITqK_fKv5o,NITqK_fKv5o,NITqK_fKv5o,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,b9krUZxyRxc,b9krUZxyRxc,b9krUZxyRxc,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,QAjt9liE_a4,QAjt9liE_a4</t>
+  </si>
+  <si>
+    <t>90,90,90,90,315,315,315,932,932,932,932,1539,1539,1539,17842,17842,17842,17842,1857,1857,1857,5264,5264,5264,5264,23845,23845,23845,857,857,857,857,577,577,577,120,120,120,120,10713,10713,10713,6081,6081,6081,6081,104,104,104,141,141,141,90,5,932,5,1857,5,23845,5,857,5,10713,5,104,5,141,5,2592,2592,2592,2592,818,818,818,2393,2393,2393,2393,184,184,184,2321,2321,2321,2321,15553,15553,15553,378,378,378,378,2270,2270,2270,2010,2010,2010,2010,451,451,451,850,850,850,850,756,756,756,167,167,167,818,5,184,5,2321,5,378,5,451,5,850,5,167,5,2592,2592,2592,2592,818,818,818,2393,2393,2393,2393,184,184,184,378,378,378,378,2270,2270,2270,278,278,278,278,1842,1842,1842,850,850,850,850,756,756,756,273,273,273,273,98,98,98,332,332,332,818,5,184,5,2270,5,278,5,850,5,273,5,332,5,137,137,137,137,1227,1227,1227,14,14,14,14,133,133,133,95,95,95,95,61,61,61,5264,5264,5264,5264,23845,23845,23845,3383,3383,3383,3383,984,984,984,2451,2451,2451,2451,3349,3349,3349,17842,17842,17842,17842,1857,1857,1857,315,315,315,315,4836,4836,4836,230,230,230,1227,5,133,5,61,5,23845,5,984,5,3349,5,1857,5,4836,5,230,5,1998,1998,1998,1998,148,148,148,514,514,514,514,5551,5551,5551,328,328,328,328,9577,9577,9577,9236,9236,9236,9236,85,85,85,2262,2262,2262,2262,3856,3856,3856,1721,1721</t>
+  </si>
+  <si>
+    <t>92,92,92,92,316,316,316,933,933,933,933,1540,1540,1540,17843,17843,17843,17843,1859,1859,1859,5265,5265,5265,5265,23846,23846,23846,858,858,858,858,578,578,578,122,122,122,122,10714,10714,10714,6083,6083,6083,6083,105,105,105,143,143,143,92,9,933,9,1859,9,23846,9,858,9,10714,9,105,9,143,9,2593,2593,2593,2593,820,820,820,2395,2395,2395,2395,185,185,185,2322,2322,2322,2322,15555,15555,15555,380,380,380,380,2272,2272,2272,2012,2012,2012,2012,453,453,453,851,851,851,851,757,757,757,168,168,168,820,9,185,9,2322,9,380,9,453,9,851,9,168,9,2593,2593,2593,2593,820,820,820,2395,2395,2395,2395,185,185,185,380,380,380,380,2272,2272,2272,280,280,280,280,1843,1843,1843,851,851,851,851,757,757,757,274,274,274,274,100,100,100,334,334,334,820,9,185,9,2272,9,280,9,851,9,274,9,334,9,139,139,139,139,1228,1228,1228,15,15,15,15,135,135,135,97,97,97,97,63,63,63,5265,5265,5265,5265,23846,23846,23846,3384,3384,3384,3384,986,986,986,2453,2453,2453,2453,3351,3351,3351,17843,17843,17843,17843,1859,1859,1859,317,317,317,317,4838,4838,4838,232,232,232,1228,9,135,9,63,9,23846,9,986,9,3351,9,1859,9,4838,9,232,9,1999,1999,1999,1999,149,149,149,515,515,515,515,5552,5552,5552,330,330,330,330,9578,9578,9578,9237,9237,9237,9237,87,87,87,2263,2263,2263,2263,3857,3857,3857,1722,1722</t>
   </si>
 </sst>
 </file>

--- a/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
+++ b/Work/Modern Ways/Open Subtitles/Talk Time/ReDe/Dutch_200_Word_Talk_Time1_Join_Test.xlsx
@@ -25,13 +25,13 @@
     <t>end_time</t>
   </si>
   <si>
-    <t>HNqNQNMXio4,HNqNQNMXio4,HNqNQNMXio4,HNqNQNMXio4,18QgUSnRjxo,18QgUSnRjxo,18QgUSnRjxo,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,g01V_H0TU8o,6QhQ4GVUhmI,6QhQ4GVUhmI,6QhQ4GVUhmI,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,vwUaEiSxeko,vwUaEiSxeko,vwUaEiSxeko,vwUaEiSxeko,zbmcJiZ5fno,zbmcJiZ5fno,zbmcJiZ5fno,LmFZFyWx8Gc,LmFZFyWx8Gc,LmFZFyWx8Gc,LmFZFyWx8Gc,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,mdNyTqKmEMs,aky6sGXP8fE,aky6sGXP8fE,aky6sGXP8fE,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,HNqNQNMXio4,Q-8I-uMUMYA,g01V_H0TU8o,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,vwUaEiSxeko,Q-8I-uMUMYA,QAjt9liE_a4,Q-8I-uMUMYA,aky6sGXP8fE,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,dMd0RQ5lGYE,dMd0RQ5lGYE,dMd0RQ5lGYE,txs2EeEypQk,txs2EeEypQk,txs2EeEypQk,txs2EeEypQk,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,2Ckh4LjX38g,2Ckh4LjX38g,2Ckh4LjX38g,uJhEbO42qRo,uJhEbO42qRo,uJhEbO42qRo,uJhEbO42qRo,l_1T3uIi4sc,l_1T3uIi4sc,l_1T3uIi4sc,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,RV_22SjePOY,RV_22SjePOY,RV_22SjePOY,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,AaVi4igmpYQ,Q-8I-uMUMYA,dMd0RQ5lGYE,Q-8I-uMUMYA,txs2EeEypQk,Q-8I-uMUMYA,LyPygt9GFlk,Q-8I-uMUMYA,l_1T3uIi4sc,Q-8I-uMUMYA,4X7rfCia4yI,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,A0Fij7grUvs,AaVi4igmpYQ,AaVi4igmpYQ,AaVi4igmpYQ,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,6b2CjjmooDA,dMd0RQ5lGYE,dMd0RQ5lGYE,dMd0RQ5lGYE,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,LyPygt9GFlk,2Ckh4LjX38g,2Ckh4LjX38g,2Ckh4LjX38g,_ZAvJpr0xjk,_ZAvJpr0xjk,_ZAvJpr0xjk,_ZAvJpr0xjk,K6lyGqxN5Uw,K6lyGqxN5Uw,K6lyGqxN5Uw,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,4X7rfCia4yI,RV_22SjePOY,RV_22SjePOY,RV_22SjePOY,7SZgZ8ubuuE,7SZgZ8ubuuE,7SZgZ8ubuuE,7SZgZ8ubuuE,4n6Edzd6LoA,4n6Edzd6LoA,4n6Edzd6LoA,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,AaVi4igmpYQ,Q-8I-uMUMYA,dMd0RQ5lGYE,Q-8I-uMUMYA,2Ckh4LjX38g,Q-8I-uMUMYA,_ZAvJpr0xjk,Q-8I-uMUMYA,4X7rfCia4yI,Q-8I-uMUMYA,7SZgZ8ubuuE,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,4aCdvnELXGQ,4aCdvnELXGQ,4aCdvnELXGQ,4aCdvnELXGQ,COlIItbPopY,COlIItbPopY,COlIItbPopY,OPIgxnSYfgQ,OPIgxnSYfgQ,OPIgxnSYfgQ,OPIgxnSYfgQ,MsqekqLZq5M,MsqekqLZq5M,MsqekqLZq5M,O1MO3NjngNk,O1MO3NjngNk,O1MO3NjngNk,O1MO3NjngNk,0dI_EMaZG94,0dI_EMaZG94,0dI_EMaZG94,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,JRhFqrIDklA,9uOFhXkzEQQ,9uOFhXkzEQQ,9uOFhXkzEQQ,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,iLJg6UP0y_8,jUUQNc8_5T0,jUUQNc8_5T0,jUUQNc8_5T0,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,vnbjQq2DZpg,ZWsp0zoZJCM,ZWsp0zoZJCM,ZWsp0zoZJCM,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,s1Iy1dpIyIA,s1Iy1dpIyIA,s1Iy1dpIyIA,s1Iy1dpIyIA,Co4vE_sSnZM,Co4vE_sSnZM,Co4vE_sSnZM,UltPsmBVTV0,UltPsmBVTV0,UltPsmBVTV0,COlIItbPopY,Q-8I-uMUMYA,MsqekqLZq5M,Q-8I-uMUMYA,0dI_EMaZG94,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,jUUQNc8_5T0,Q-8I-uMUMYA,ZWsp0zoZJCM,Q-8I-uMUMYA,biKaNGgB3H8,Q-8I-uMUMYA,Co4vE_sSnZM,Q-8I-uMUMYA,UltPsmBVTV0,Q-8I-uMUMYA,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,po3SMpTUHow,6aNez9olqMU,6aNez9olqMU,6aNez9olqMU,NITqK_fKv5o,NITqK_fKv5o,NITqK_fKv5o,NITqK_fKv5o,QAjt9liE_a4,QAjt9liE_a4,QAjt9liE_a4,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,gK0_yZDGIgw,R4Q1cNbNKU0,R4Q1cNbNKU0,R4Q1cNbNKU0,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,b9krUZxyRxc,b9krUZxyRxc,b9krUZxyRxc,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,t35fwDbZyiQ,QAjt9liE_a4,QAjt9liE_a4</t>
-  </si>
-  <si>
-    <t>90,90,90,90,315,315,315,932,932,932,932,1539,1539,1539,17842,17842,17842,17842,1857,1857,1857,5264,5264,5264,5264,23845,23845,23845,857,857,857,857,577,577,577,120,120,120,120,10713,10713,10713,6081,6081,6081,6081,104,104,104,141,141,141,90,5,932,5,1857,5,23845,5,857,5,10713,5,104,5,141,5,2592,2592,2592,2592,818,818,818,2393,2393,2393,2393,184,184,184,2321,2321,2321,2321,15553,15553,15553,378,378,378,378,2270,2270,2270,2010,2010,2010,2010,451,451,451,850,850,850,850,756,756,756,167,167,167,818,5,184,5,2321,5,378,5,451,5,850,5,167,5,2592,2592,2592,2592,818,818,818,2393,2393,2393,2393,184,184,184,378,378,378,378,2270,2270,2270,278,278,278,278,1842,1842,1842,850,850,850,850,756,756,756,273,273,273,273,98,98,98,332,332,332,818,5,184,5,2270,5,278,5,850,5,273,5,332,5,137,137,137,137,1227,1227,1227,14,14,14,14,133,133,133,95,95,95,95,61,61,61,5264,5264,5264,5264,23845,23845,23845,3383,3383,3383,3383,984,984,984,2451,2451,2451,2451,3349,3349,3349,17842,17842,17842,17842,1857,1857,1857,315,315,315,315,4836,4836,4836,230,230,230,1227,5,133,5,61,5,23845,5,984,5,3349,5,1857,5,4836,5,230,5,1998,1998,1998,1998,148,148,148,514,514,514,514,5551,5551,5551,328,328,328,328,9577,9577,9577,9236,9236,9236,9236,85,85,85,2262,2262,2262,2262,3856,3856,3856,1721,1721</t>
-  </si>
-  <si>
-    <t>92,92,92,92,316,316,316,933,933,933,933,1540,1540,1540,17843,17843,17843,17843,1859,1859,1859,5265,5265,5265,5265,23846,23846,23846,858,858,858,858,578,578,578,122,122,122,122,10714,10714,10714,6083,6083,6083,6083,105,105,105,143,143,143,92,9,933,9,1859,9,23846,9,858,9,10714,9,105,9,143,9,2593,2593,2593,2593,820,820,820,2395,2395,2395,2395,185,185,185,2322,2322,2322,2322,15555,15555,15555,380,380,380,380,2272,2272,2272,2012,2012,2012,2012,453,453,453,851,851,851,851,757,757,757,168,168,168,820,9,185,9,2322,9,380,9,453,9,851,9,168,9,2593,2593,2593,2593,820,820,820,2395,2395,2395,2395,185,185,185,380,380,380,380,2272,2272,2272,280,280,280,280,1843,1843,1843,851,851,851,851,757,757,757,274,274,274,274,100,100,100,334,334,334,820,9,185,9,2272,9,280,9,851,9,274,9,334,9,139,139,139,139,1228,1228,1228,15,15,15,15,135,135,135,97,97,97,97,63,63,63,5265,5265,5265,5265,23846,23846,23846,3384,3384,3384,3384,986,986,986,2453,2453,2453,2453,3351,3351,3351,17843,17843,17843,17843,1859,1859,1859,317,317,317,317,4838,4838,4838,232,232,232,1228,9,135,9,63,9,23846,9,986,9,3351,9,1859,9,4838,9,232,9,1999,1999,1999,1999,149,149,149,515,515,515,515,5552,5552,5552,330,330,330,330,9578,9578,9578,9237,9237,9237,9237,87,87,87,2263,2263,2263,2263,3857,3857,3857,1722,1722</t>
+    <t>Imj3JLDlIZE,Imj3JLDlIZE,Imj3JLDlIZE,mgH9ulHIsd8,miouy02UT58,MNCyjl4jaxY,QAjt9liE_a4,1r9RSVe90xI,1r9RSVe90xI,1r9RSVe90xI,EZMgSCfbiGs,P2rFpOB6ZKI,vfNcRSsv_5g,Yrh7Bmlq7uA,zgdAEBSgTTk,zgdAEBSgTTk,zgdAEBSgTTk,EmxRrMXp3UY,plOs9Rlvsig,TXprEFB2urU,WB2jYe9y_Lk,COlIItbPopY,COlIItbPopY,COlIItbPopY,robgEk58nx4,3qFeoZQwQtw,9uOFhXkzEQQ,mdNyTqKmEMs,6EcMZtA1EKs,6EcMZtA1EKs,6EcMZtA1EKs,hZlJt9CRSn4,TvZ_IRJyp40,AXQBbFhcRvw,Tkcyx1tI3EE,dn0j8bcHoII,dn0j8bcHoII,dn0j8bcHoII,lApJy0bJNk0,zmweL9DediI,JuAk7ch3vHI,P9u2BkJamhg,dIevT4Gkov4,dIevT4Gkov4,dIevT4Gkov4,mdNyTqKmEMs,gKvIVk9KP2c,fPzfhneNmcc,RHT10hMwKMY,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,Imj3JLDlIZE,Q-8I-uMUMYA,P2rFpOB6ZKI,Q-8I-uMUMYA,WB2jYe9y_Lk,Q-8I-uMUMYA,mdNyTqKmEMs,Q-8I-uMUMYA,hZlJt9CRSn4,Q-8I-uMUMYA,zmweL9DediI,Q-8I-uMUMYA,dIevT4Gkov4,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,uN97AqTW4Mw,uN97AqTW4Mw,uN97AqTW4Mw,AFi3OjLEqDg,WpLsRtnfzuo,Y2u22naXMJU,zb9mrqt8ZUw,fs9Vcsy3h7Q,fs9Vcsy3h7Q,fs9Vcsy3h7Q,2Ckh4LjX38g,zb9mrqt8ZUw,EZMgSCfbiGs,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,k1up2KLkuaM,2Ckh4LjX38g,JRhFqrIDklA,bzYTCisoPCk,hXMn1yLeCzU,8qTFcL1LClI,8qTFcL1LClI,8qTFcL1LClI,httogT63gE0,qpTps9jjTHs,t35fwDbZyiQ,3EtUTpXWCKI,jbcojw0HKYU,jbcojw0HKYU,jbcojw0HKYU,WlJ12LESGP0,8M969UpmN_s,ldFpIdQPQb4,9uOFhXkzEQQ,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,4pJ1agAJnkg,BeWGEED5vdU,73EiZCbh29c,wb9hFg11aHE,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,uN97AqTW4Mw,Q-8I-uMUMYA,EZMgSCfbiGs,Q-8I-uMUMYA,bzYTCisoPCk,Q-8I-uMUMYA,qpTps9jjTHs,Q-8I-uMUMYA,8M969UpmN_s,Q-8I-uMUMYA,wb9hFg11aHE,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,uN97AqTW4Mw,uN97AqTW4Mw,uN97AqTW4Mw,AFi3OjLEqDg,WpLsRtnfzuo,Y2u22naXMJU,zb9mrqt8ZUw,fs9Vcsy3h7Q,fs9Vcsy3h7Q,fs9Vcsy3h7Q,2Ckh4LjX38g,zb9mrqt8ZUw,EZMgSCfbiGs,k1up2KLkuaM,8qTFcL1LClI,8qTFcL1LClI,8qTFcL1LClI,httogT63gE0,qpTps9jjTHs,t35fwDbZyiQ,3EtUTpXWCKI,LdGAIw6dg3U,LdGAIw6dg3U,LdGAIw6dg3U,iOl9vutUDFM,HNqNQNMXio4,n49WNtcDAMo,zpvcP46jzF4,Ewyhf2C7Z50,Ewyhf2C7Z50,Ewyhf2C7Z50,4pJ1agAJnkg,BeWGEED5vdU,73EiZCbh29c,wb9hFg11aHE,xKNDkrAQ3iM,xKNDkrAQ3iM,xKNDkrAQ3iM,9uOFhXkzEQQ,qFmXQ000zP0,71PKVXuCQj8,8oxf7nVWqIE,JUQTVKIBFns,JUQTVKIBFns,JUQTVKIBFns,AFi3OjLEqDg,Q-8I-uMUMYA,2Ckh4LjX38g,Q-8I-uMUMYA,qpTps9jjTHs,Q-8I-uMUMYA,n49WNtcDAMo,Q-8I-uMUMYA,4pJ1agAJnkg,Q-8I-uMUMYA,xKNDkrAQ3iM,Q-8I-uMUMYA,JUQTVKIBFns,Q-8I-uMUMYA,lApJy0bJNk0,lApJy0bJNk0,lApJy0bJNk0,9uOFhXkzEQQ,ufi_jKz5Ds4,B2cCnRVFU9g,OPIgxnSYfgQ,KFkJCia8L5M,KFkJCia8L5M,KFkJCia8L5M,EnSZyvxgPqA,XRBb17aWENc,UmrKOEpAOjo,UbIX71sXnSY,6cLyrvpM1hg,6cLyrvpM1hg,6cLyrvpM1hg,3TI4Ce_ckO0,J63OIhyV6T0,HSvcc0uNxQ4,3Nj4Kvd5zAI,COlIItbPopY,COlIItbPopY,COlIItbPopY,robgEk58nx4,3qFeoZQwQtw,9uOFhXkzEQQ,mdNyTqKmEMs,GP9vbMkEKdI,GP9vbMkEKdI,GP9vbMkEKdI,ujhJfqOxD_g,UH5OpEpuBCA,_oGvpbjsJk0,24EWdb4zZv4,biKaNGgB3H8,biKaNGgB3H8,biKaNGgB3H8,cvsjmYm1mAE,R8S7DB_ZaVU,ufQenq834F4,olV0Z7BJ3XE,zgdAEBSgTTk,zgdAEBSgTTk,zgdAEBSgTTk,EmxRrMXp3UY,plOs9Rlvsig,TXprEFB2urU,WB2jYe9y_Lk,6QhQ4GVUhmI,6QhQ4GVUhmI,6QhQ4GVUhmI,TPRxRe8p2H0,9uOFhXkzEQQ,nFJ1QkFC088,hQMLSrwC2Tg,UltPsmBVTV0,UltPsmBVTV0,UltPsmBVTV0,B2cCnRVFU9g,Q-8I-uMUMYA,EnSZyvxgPqA,Q-8I-uMUMYA,HSvcc0uNxQ4,Q-8I-uMUMYA,3qFeoZQwQtw,Q-8I-uMUMYA,GP9vbMkEKdI,Q-8I-uMUMYA,ufQenq834F4,Q-8I-uMUMYA,TXprEFB2urU,Q-8I-uMUMYA,9uOFhXkzEQQ,Q-8I-uMUMYA,UltPsmBVTV0,Q-8I-uMUMYA,xKNDkrAQ3iM,xKNDkrAQ3iM,xKNDkrAQ3iM,kcGQpH_YE9I,PPEVhlDaJlg,loL9z89lf28,WB2jYe9y_Lk,MFy7CJfATmA,MFy7CJfATmA,MFy7CJfATmA,xdzB8v6JcOA,z83TmA9J618,F3DzUvWohpA,QMWx_rVnlwU,Yrh7Bmlq7uA,Yrh7Bmlq7uA,Yrh7Bmlq7uA,uJhEbO42qRo,OZYwsdRH2Qg,ZJeXekMsQOU,oC2lalTIU5U,EnSZyvxgPqA,EnSZyvxgPqA,EnSZyvxgPqA,7cfypoXRR4U,qC9tws_Li_o,znl_LpOcfVw,OqiXdNT9R8Y,olV0Z7BJ3XE,olV0Z7BJ3XE,olV0Z7BJ3XE,Pu4gkfBQpjk,pruDyt__jYs,EZMgSCfbiGs,tfzC9AvItfg,1KaoCu5SII8,1KaoCu5SII8</t>
+  </si>
+  <si>
+    <t>376,376,376,60,612,296,9634,2970,2970,2970,813,727,107,1558,39,39,39,4974,2335,34,4813,585,585,585,2007,1353,19660,5037,620,620,620,332,385,45,97,392,392,392,7908,321,14,858,30,30,30,10298,382,2083,387,141,141,141,376,5,727,5,4813,5,5037,5,332,5,321,5,30,5,141,5,708,708,708,17,235,89,64,258,258,258,2079,322,5351,3928,844,844,844,4304,8217,14,3162,53,53,53,361,209,3404,416,42,42,42,1151,81,95,8217,957,957,957,1014,89,1457,54,167,167,167,708,5,5351,5,14,5,209,5,81,5,54,5,167,5,708,708,708,17,235,89,64,258,258,258,2079,322,5351,3928,53,53,53,361,209,3404,416,1230,1230,1230,363,1174,337,120,957,957,957,1014,89,1457,54,1122,1122,1122,19080,4569,1702,688,332,332,332,17,5,2079,5,209,5,337,5,1014,5,1122,5,332,5,2438,2438,2438,8042,594,737,75,3158,3158,3158,2521,2669,105,86,60,60,60,2568,282,136,149,585,585,585,2007,1353,19660,5037,353,353,353,121,3506,446,827,268,268,268,79,93,4587,1658,39,39,39,4974,2335,34,4813,461,461,461,57,3231,0,178,230,230,230,737,5,2521,5,136,5,1353,5,353,5,4587,5,34,5,3231,5,230,5,3861,3861,3861,107,1167,252,2174,303,303,303,581,113,567,1026,3774,3774,3774,4630,1862,185,504,2475,2475,2475,13,485,436,55,958,958,958,160,1162,5099,286,108,108</t>
+  </si>
+  <si>
+    <t>377,377,377,62,614,297,9635,2972,2972,2972,815,729,108,1560,40,40,40,4975,2336,35,4815,587,587,587,2009,1355,19662,5039,621,621,621,333,387,46,99,393,393,393,7909,323,16,860,32,32,32,10299,384,2085,389,143,143,143,377,9,729,9,4815,9,5039,9,333,9,323,9,32,9,143,9,711,711,711,18,237,90,66,260,260,260,2080,324,5353,3930,845,845,845,4305,8218,15,3164,55,55,55,363,211,3405,417,43,43,43,1152,83,97,8219,958,958,958,1016,90,1458,56,168,168,168,711,9,5353,9,15,9,211,9,83,9,56,9,168,9,711,711,711,18,237,90,66,260,260,260,2080,324,5353,3930,55,55,55,363,211,3405,417,1231,1231,1231,365,1176,338,122,958,958,958,1016,90,1458,56,1124,1124,1124,19081,4571,1703,690,334,334,334,18,9,2080,9,211,9,338,9,1016,9,1124,9,334,9,2439,2439,2439,8044,596,738,77,3160,3160,3160,2522,2671,106,88,61,61,61,2569,284,138,150,587,587,587,2009,1355,19662,5039,355,355,355,122,3508,448,829,269,269,269,81,95,4589,1659,40,40,40,4975,2336,35,4815,462,462,462,59,3233,1,180,232,232,232,738,9,2522,9,138,9,1355,9,355,9,4589,9,35,9,3233,9,232,9,3862,3862,3862,109,1168,254,2176,304,304,304,582,114,568,1027,3775,3775,3775,4631,1864,187,505,2476,2476,2476,15,487,437,57,959,959,959,162,1163,5100,288,110,110</t>
   </si>
 </sst>
 </file>
